--- a/aspnet-core/test/Timesheet.Application.Tests/Tables/dbo.AbpUsers.xlsx
+++ b/aspnet-core/test/Timesheet.Application.Tests/Tables/dbo.AbpUsers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\phuy\workspace\ncc-erp-timesheet\aspnet-core\test\Timesheet.Application.Tests\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCC\TimesheetGithub\ncc-erp-timesheet\aspnet-core\test\Timesheet.Application.Tests\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B28059-76F2-456C-ABD3-A6F2A882B61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="289">
   <si>
     <t>Id</t>
   </si>
@@ -891,12 +892,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1247,75 +1248,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="102.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="102.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="33" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.5" customWidth="1"/>
-    <col min="38" max="38" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.44140625" customWidth="1"/>
+    <col min="38" max="38" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="18" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="12" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1564,6 +1565,9 @@
       <c r="AO2" t="s">
         <v>273</v>
       </c>
+      <c r="AP2" t="s">
+        <v>85</v>
+      </c>
       <c r="AS2" t="s">
         <v>66</v>
       </c>
@@ -1595,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3020,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3395,7 +3399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3636,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3755,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3877,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
